--- a/statics/MEDIASTODASUNIDADES.xlsx
+++ b/statics/MEDIASTODASUNIDADES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f28ae49758e922e1/Desktop/devbook/editabletable/statics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="14_{FB9C7360-590A-4BCB-8EBC-DFEF95328053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A53C99E9-CE3D-4366-BF51-AC55B06E3DEB}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="14_{FB9C7360-590A-4BCB-8EBC-DFEF95328053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698885D2-5F1B-4054-8EA0-36B27BD817C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="turma" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +207,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cavolini"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -264,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -332,6 +339,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,14 +804,14 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="23" t="s">
         <v>8</v>
       </c>
@@ -844,36 +857,30 @@
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="8"/>
       <c r="F6" s="3">
         <f>D6+E6</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <f>IF(H6&lt;15,15 - H6,"NADA")</f>
-        <v>NADA</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H51" si="0">B6+C6+F6</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3">
         <f t="shared" ref="J6:J51" si="1">IF(H6&gt;14.9, H6/3,I6)</f>
-        <v>6.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15" t="str">
         <f>IF(J6&lt;5,"REPROVADO","APROVADO")</f>
-        <v>APROVADO</v>
+        <v>REPROVADO</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2141,8 +2148,8 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H6:H51">
